--- a/Luban/MiniTemplate/Datas/#CharacterData.xlsx
+++ b/Luban/MiniTemplate/Datas/#CharacterData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -38,6 +38,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>characterType</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>角色1</t>
   </si>
   <si>
+    <t>Melee</t>
+  </si>
+  <si>
     <t>角色1描述</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
     <t>角色5</t>
   </si>
   <si>
+    <t>Ranged</t>
+  </si>
+  <si>
     <t>角色5描述</t>
   </si>
   <si>
@@ -168,6 +180,9 @@
   </si>
   <si>
     <t>角色10</t>
+  </si>
+  <si>
+    <t>Shoot</t>
   </si>
   <si>
     <t>角色10描述</t>
@@ -1137,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1148,14 +1163,18 @@
     <col min="2" max="2" width="23.0714285714286" customWidth="1"/>
     <col min="3" max="3" width="30.2053571428571" customWidth="1"/>
     <col min="4" max="4" width="17.2589285714286" customWidth="1"/>
+    <col min="5" max="5" width="11.7589285714286" customWidth="1"/>
+    <col min="6" max="6" width="11.4642857142857" customWidth="1"/>
+    <col min="7" max="7" width="15.7589285714286" customWidth="1"/>
     <col min="8" max="8" width="19.9375" customWidth="1"/>
     <col min="9" max="9" width="19.6428571428571" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="23.2142857142857" customWidth="1"/>
+    <col min="13" max="13" width="12.1964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,10 +1193,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1192,74 +1211,80 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>1</v>
       </c>
@@ -1267,34 +1292,37 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
@@ -1302,363 +1330,396 @@
         <v>1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
         <v>51</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
         <v>52</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
         <v>53</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>3.5</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
+      <c r="M9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
         <v>54</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
       <c r="G11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12">
         <v>56</v>
       </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
       <c r="G12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
         <v>57</v>
       </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
       <c r="G13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
         <v>58</v>
       </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
       <c r="G14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
         <v>59</v>
       </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
       <c r="G15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
         <v>60</v>
       </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
       <c r="G16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>48</v>
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="4:4">

--- a/Luban/MiniTemplate/Datas/#CharacterData.xlsx
+++ b/Luban/MiniTemplate/Datas/#CharacterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30480" windowHeight="13300"/>
+    <workbookView windowWidth="30240" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,9 @@
     <t>bondList</t>
   </si>
   <si>
+    <t>icon_url</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>Attack,Defend</t>
   </si>
   <si>
+    <t>解释 ZWSP (1)</t>
+  </si>
+  <si>
     <t>角色2</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
     <t>Attack,Move</t>
   </si>
   <si>
+    <t>解释 ZWSP (2)</t>
+  </si>
+  <si>
     <t>角色3</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
     <t>Attack,HP</t>
   </si>
   <si>
+    <t>解释 ZWSP (3)</t>
+  </si>
+  <si>
     <t>角色4</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
     <t>Defend,Move</t>
   </si>
   <si>
+    <t>解释 ZWSP (4)</t>
+  </si>
+  <si>
     <t>角色5</t>
   </si>
   <si>
@@ -143,6 +158,9 @@
     <t>Defend,HP</t>
   </si>
   <si>
+    <t>解释 ZWSP (5)</t>
+  </si>
+  <si>
     <t>角色6</t>
   </si>
   <si>
@@ -152,6 +170,9 @@
     <t>Move,HP</t>
   </si>
   <si>
+    <t>解释 ZWSP (6)</t>
+  </si>
+  <si>
     <t>角色7</t>
   </si>
   <si>
@@ -161,6 +182,9 @@
     <t>Attack,Defend,Move</t>
   </si>
   <si>
+    <t>解释 ZWSP (7)</t>
+  </si>
+  <si>
     <t>角色8</t>
   </si>
   <si>
@@ -170,6 +194,9 @@
     <t>Attack,Defend,HP</t>
   </si>
   <si>
+    <t>解释 ZWSP (8)</t>
+  </si>
+  <si>
     <t>角色9</t>
   </si>
   <si>
@@ -179,6 +206,9 @@
     <t>Attack,Move,HP</t>
   </si>
   <si>
+    <t>解释 ZWSP (9)</t>
+  </si>
+  <si>
     <t>角色10</t>
   </si>
   <si>
@@ -189,6 +219,9 @@
   </si>
   <si>
     <t>Attack</t>
+  </si>
+  <si>
+    <t>解释 ZWSP (10)</t>
   </si>
   <si>
     <t>角色11</t>
@@ -1152,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1171,10 +1204,11 @@
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="23.2142857142857" customWidth="1"/>
-    <col min="13" max="13" width="12.1964285714286" customWidth="1"/>
+    <col min="13" max="13" width="16.3660714285714" customWidth="1"/>
+    <col min="14" max="14" width="16.5178571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,70 +1248,76 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -1301,21 +1341,24 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -1339,21 +1382,24 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>51</v>
@@ -1377,21 +1423,24 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>52</v>
@@ -1415,21 +1464,24 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>53</v>
@@ -1453,21 +1505,24 @@
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>54</v>
@@ -1491,21 +1546,24 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>55</v>
@@ -1529,21 +1587,24 @@
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>56</v>
@@ -1567,21 +1628,24 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>57</v>
@@ -1605,21 +1669,24 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>58</v>
@@ -1643,21 +1710,24 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>59</v>
@@ -1681,21 +1751,24 @@
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>60</v>
@@ -1719,7 +1792,10 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="4:4">

--- a/Luban/MiniTemplate/Datas/#CharacterData.xlsx
+++ b/Luban/MiniTemplate/Datas/#CharacterData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -95,70 +95,67 @@
     <t>##</t>
   </si>
   <si>
-    <t>角色1</t>
+    <t>数字代表一</t>
   </si>
   <si>
     <t>Melee</t>
   </si>
   <si>
-    <t>角色1描述</t>
-  </si>
-  <si>
-    <t>Attack,Defend</t>
-  </si>
-  <si>
-    <t>解释 ZWSP (1)</t>
-  </si>
-  <si>
-    <t>角色2</t>
-  </si>
-  <si>
-    <t>角色2描述</t>
-  </si>
-  <si>
-    <t>Attack,Move</t>
-  </si>
-  <si>
-    <t>解释 ZWSP (2)</t>
-  </si>
-  <si>
-    <t>角色3</t>
-  </si>
-  <si>
-    <t>角色3描述</t>
-  </si>
-  <si>
-    <t>Attack,HP</t>
-  </si>
-  <si>
-    <t>解释 ZWSP (3)</t>
-  </si>
-  <si>
-    <t>角色4</t>
-  </si>
-  <si>
-    <t>角色4描述</t>
-  </si>
-  <si>
-    <t>Defend,Move</t>
-  </si>
-  <si>
-    <t>解释 ZWSP (4)</t>
-  </si>
-  <si>
-    <t>角色5</t>
+    <t>数字家族中排行一</t>
+  </si>
+  <si>
+    <t>数字羁绊,万物伊始,开方数</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>数字代表二</t>
+  </si>
+  <si>
+    <t>数字家族中排行二</t>
+  </si>
+  <si>
+    <t>数字羁绊,万物伊始</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>数字代表三</t>
+  </si>
+  <si>
+    <t>数字家族中排行三</t>
+  </si>
+  <si>
+    <t>数字羁绊,独特数</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>数字代表四</t>
+  </si>
+  <si>
+    <t>数字家族中排行四</t>
+  </si>
+  <si>
+    <t>数字羁绊,开方数</t>
+  </si>
+  <si>
+    <t>num4</t>
+  </si>
+  <si>
+    <t>数字代表五</t>
   </si>
   <si>
     <t>Ranged</t>
   </si>
   <si>
-    <t>角色5描述</t>
-  </si>
-  <si>
-    <t>Defend,HP</t>
-  </si>
-  <si>
-    <t>解释 ZWSP (5)</t>
+    <t>数字家族中排行五</t>
+  </si>
+  <si>
+    <t>num5</t>
   </si>
   <si>
     <t>角色6</t>
@@ -1187,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1196,15 +1193,15 @@
     <col min="2" max="2" width="23.0714285714286" customWidth="1"/>
     <col min="3" max="3" width="30.2053571428571" customWidth="1"/>
     <col min="4" max="4" width="17.2589285714286" customWidth="1"/>
-    <col min="5" max="5" width="11.7589285714286" customWidth="1"/>
+    <col min="5" max="5" width="25.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="11.4642857142857" customWidth="1"/>
     <col min="7" max="7" width="15.7589285714286" customWidth="1"/>
     <col min="8" max="8" width="19.9375" customWidth="1"/>
     <col min="9" max="9" width="19.6428571428571" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="23.2142857142857" customWidth="1"/>
-    <col min="13" max="13" width="16.3660714285714" customWidth="1"/>
+    <col min="10" max="10" width="15.1785714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.9375" customWidth="1"/>
+    <col min="12" max="12" width="14.1339285714286" customWidth="1"/>
+    <col min="13" max="13" width="34.6696428571429" customWidth="1"/>
     <col min="14" max="14" width="16.5178571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1329,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0.5</v>
@@ -1370,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>0.5</v>
@@ -1402,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1411,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>0.5</v>
@@ -1443,7 +1440,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1452,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>0.5</v>
@@ -1484,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="F9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1493,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>0.5</v>
@@ -1505,27 +1502,30 @@
         <v>4</v>
       </c>
       <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1534,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0.5</v>
@@ -1546,27 +1546,30 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
         <v>46</v>
       </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1575,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>0.5</v>
@@ -1587,27 +1590,30 @@
         <v>4</v>
       </c>
       <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1616,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <v>0.5</v>
@@ -1628,27 +1634,30 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
         <v>54</v>
       </c>
-      <c r="N12" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1657,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>0.5</v>
@@ -1669,27 +1678,30 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" t="s">
         <v>58</v>
       </c>
-      <c r="N13" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
       <c r="F14">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1698,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -1710,27 +1722,30 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
         <v>63</v>
       </c>
-      <c r="N14" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
       <c r="F15">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1739,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0.5</v>
@@ -1751,27 +1766,30 @@
         <v>4</v>
       </c>
       <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
         <v>63</v>
       </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
       <c r="F16">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1780,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>0.5</v>
@@ -1792,10 +1810,10 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
         <v>63</v>
-      </c>
-      <c r="N16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="4:4">
